--- a/turnover_with_wins.xlsx
+++ b/turnover_with_wins.xlsx
@@ -5,41 +5,41 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanleytan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanleytan/Library/Mobile Documents/com~apple~CloudDocs/Online_courses/fantasy_football/my_git_repo/fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A24C89C-B951-E040-93B9-93D1FDE79B76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05981808-0384-4F4B-A4B9-6F679F9471FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" xr2:uid="{2A62B79D-CE13-9C4F-B56F-87883A4D7FE8}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16040" activeTab="3" xr2:uid="{2A62B79D-CE13-9C4F-B56F-87883A4D7FE8}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="1" r:id="rId1"/>
-    <sheet name="2019" sheetId="2" r:id="rId2"/>
-    <sheet name="2018" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId1"/>
+    <sheet name="2020_prop" sheetId="8" r:id="rId2"/>
+    <sheet name="2019 R" sheetId="7" r:id="rId3"/>
+    <sheet name="2019_prop" sheetId="6" r:id="rId4"/>
+    <sheet name="2018 R" sheetId="5" r:id="rId5"/>
+    <sheet name="2018_prop" sheetId="4" r:id="rId6"/>
+    <sheet name="2020" sheetId="1" r:id="rId7"/>
+    <sheet name="2019" sheetId="2" r:id="rId8"/>
+    <sheet name="2018" sheetId="3" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'2020'!$A$2:$A$33</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'2020'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'2020'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'2020'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'2019'!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'2019'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'2019'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'2018'!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'2018'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'2018'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'2018'!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'2018'!$C$2:$C$33</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'2018'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'2018'!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'2018'!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'2018'!$C$2:$C$33</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'2020'!$C$2:$C$33</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'2020'!$A$2:$A$33</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'2020'!$B$2:$B$33</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'2020'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'2020'!$A$2:$A$33</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'2020'!$B$2:$B$33</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'2020'!$C$2:$C$33</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'2020'!$A$2:$A$33</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'2019'!$A$2:$A$33</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'2019'!$B$2:$B$33</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'2019'!$C$2:$C$33</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'2018'!$A$2:$A$33</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="88">
   <si>
     <t>W</t>
   </si>
@@ -236,12 +236,99 @@
   <si>
     <t>Baltimore Ravens  xz*  Ravens  xz*</t>
   </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>turnovers</t>
+  </si>
+  <si>
+    <t>proportion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +343,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -273,13 +368,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,6 +418,959 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2020_prop'!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2020_prop'!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>61.107142857142854</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.785714285714278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.178571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.892857142857139</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.357142857142861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.035714285714285</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>85.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36.357142857142861</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>54.035714285714285</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>61.107142857142854</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.964285714285715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.642857142857139</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>71.714285714285722</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.214285714285712</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>64.642857142857139</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92.928571428571431</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.964285714285715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D14-C940-9C4B-1B96FE40D1AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="337559631"/>
+        <c:axId val="337022591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="337559631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337022591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="337022591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337559631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2018_prop'!$F$2:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2018_prop'!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>33.175000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.175000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85.149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65.350000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90.100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>75.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>87.625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>82.674999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>67.825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45.550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>48.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.324999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB25-7B46-B6F9-8C846AFDBF3B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="275631423"/>
+        <c:axId val="275047183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="275631423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275047183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="275047183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="275631423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,18 +1442,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -430,18 +1506,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -452,7 +1528,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{D4E06B38-6E90-4646-B7E6-332991C4BB1C}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>W</cx:v>
             </cx:txData>
           </cx:tx>
@@ -468,7 +1544,7 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{349298D9-6DB0-764F-8A38-E36D7B2CD4FD}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -621,7 +1697,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1129,7 +3317,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1637,7 +3825,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2146,6 +4334,88 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83AF81EA-3348-AF45-BF71-38F70E751649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98AB83F-147D-814F-A2B5-5C46E43C5DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2228,7 +4498,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2311,7 +4581,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2690,10 +4960,2809 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8B1D9A-90B1-F243-B933-EC75438DA96B}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.1853975077544182E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17751.811224489789</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17751.811224489789</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.6020462386790361E+32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.0665041940277186E-28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.688834731342573E-29</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>17751.811224489789</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2">
+        <v>61.107142857142868</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.1665743522024292E-16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.6663009003424288E+16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>61.107142857142868</v>
+      </c>
+      <c r="G17" s="2">
+        <v>61.107142857142868</v>
+      </c>
+      <c r="H17" s="2">
+        <v>61.107142857142868</v>
+      </c>
+      <c r="I17" s="2">
+        <v>61.107142857142868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3.5357142857142856</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.3760616212410387E-16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2.5694447335327216E+16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.5357142857142851</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3.535714285714286</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.5357142857142851</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.535714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897A97E0-065E-7445-9898-FBCA38D025A1}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>(100-1)*((C2-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>61.107142857142854</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>61.107142857142854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D33" si="0">(100-1)*((C3-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>78.785714285714278</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>78.785714285714278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>71.714285714285722</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>71.714285714285722</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>68.178571428571431</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>68.178571428571431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>39.892857142857139</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>39.892857142857139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>36.357142857142861</v>
+      </c>
+      <c r="F8">
+        <v>-7</v>
+      </c>
+      <c r="G8">
+        <v>36.357142857142861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>85.857142857142847</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>85.857142857142847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-13</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>15.142857142857142</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>-17</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>54.035714285714285</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>54.035714285714285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>46.964285714285715</v>
+      </c>
+      <c r="F14">
+        <v>-4</v>
+      </c>
+      <c r="G14">
+        <v>46.964285714285715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>85.857142857142847</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>85.857142857142847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>-7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>36.357142857142861</v>
+      </c>
+      <c r="F16">
+        <v>-7</v>
+      </c>
+      <c r="G16">
+        <v>36.357142857142861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>54.035714285714285</v>
+      </c>
+      <c r="F18">
+        <v>-2</v>
+      </c>
+      <c r="G18">
+        <v>54.035714285714285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>-3</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="F19">
+        <v>-3</v>
+      </c>
+      <c r="G19">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>61.107142857142854</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>61.107142857142854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>85.857142857142847</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>85.857142857142847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>-4</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>46.964285714285715</v>
+      </c>
+      <c r="F22">
+        <v>-4</v>
+      </c>
+      <c r="G22">
+        <v>46.964285714285715</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>64.642857142857139</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>64.642857142857139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>85.857142857142847</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24">
+        <v>85.857142857142847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>71.714285714285722</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>71.714285714285722</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>57.571428571428569</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+      <c r="G26">
+        <v>57.571428571428569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-11</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>22.214285714285712</v>
+      </c>
+      <c r="F27">
+        <v>-11</v>
+      </c>
+      <c r="G27">
+        <v>22.214285714285712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>-5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>43.428571428571423</v>
+      </c>
+      <c r="F29">
+        <v>-5</v>
+      </c>
+      <c r="G29">
+        <v>43.428571428571423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>64.642857142857139</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>64.642857142857139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>92.928571428571431</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>92.928571428571431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>46.964285714285715</v>
+      </c>
+      <c r="F33">
+        <v>-4</v>
+      </c>
+      <c r="G33">
+        <v>46.964285714285715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34D63B0-9EB8-1640-996D-7BE565F8231D}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.7814939643097777E-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>18746.788088642661</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18746.788088642661</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.0959996316907119E+32</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.8165494494976849E-27</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6.0551648316589503E-29</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>18746.788088642661</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45.28947368421052</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.3755867874814082E-15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.2923748684103024E+16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45.28947368421052</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45.28947368421052</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45.28947368421052</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45.28947368421052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2.6052631578947363</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.4806456935003085E-16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.7595452911734642E+16</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2.6052631578947358</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.6052631578947367</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2.6052631578947358</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.6052631578947367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE3FE4B-E457-1841-9C63-34C72F097DC9}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <f>(100-1)*((C2-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>42.684210526315788</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>42.684210526315788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D32" si="0">(100-1)*((C3-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>32.263157894736835</v>
+      </c>
+      <c r="F3">
+        <v>-5</v>
+      </c>
+      <c r="G3">
+        <v>32.263157894736835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>71.34210526315789</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>71.34210526315789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>55.71052631578948</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>55.71052631578948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-14</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>8.8157894736842088</v>
+      </c>
+      <c r="F6">
+        <v>-14</v>
+      </c>
+      <c r="G6">
+        <v>8.8157894736842088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>45.289473684210527</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>45.289473684210527</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>8.8157894736842088</v>
+      </c>
+      <c r="F8">
+        <v>-14</v>
+      </c>
+      <c r="G8">
+        <v>8.8157894736842088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24.44736842105263</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>24.44736842105263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>42.684210526315788</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>42.684210526315788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>47.89473684210526</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.89473684210526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>32.263157894736835</v>
+      </c>
+      <c r="F12">
+        <v>-5</v>
+      </c>
+      <c r="G12">
+        <v>32.263157894736835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>76.55263157894737</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>76.55263157894737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>45.289473684210527</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>45.289473684210527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>42.684210526315788</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>42.684210526315788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>66.131578947368425</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>66.131578947368425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>-17</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>45.289473684210527</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>45.289473684210527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>19.236842105263158</v>
+      </c>
+      <c r="F20">
+        <v>-10</v>
+      </c>
+      <c r="G20">
+        <v>19.236842105263158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>73.94736842105263</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>73.94736842105263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>84.368421052631575</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>84.368421052631575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-17</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>-17</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>34.868421052631582</v>
+      </c>
+      <c r="F25">
+        <v>-4</v>
+      </c>
+      <c r="G25">
+        <v>34.868421052631582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>40.078947368421055</v>
+      </c>
+      <c r="F26">
+        <v>-2</v>
+      </c>
+      <c r="G26">
+        <v>40.078947368421055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>37.473684210526315</v>
+      </c>
+      <c r="F27">
+        <v>-3</v>
+      </c>
+      <c r="G27">
+        <v>37.473684210526315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>66.131578947368425</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>66.131578947368425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>55.71052631578948</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>55.71052631578948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>76.55263157894737</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>76.55263157894737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-13</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>11.421052631578947</v>
+      </c>
+      <c r="F31">
+        <v>-13</v>
+      </c>
+      <c r="G31">
+        <v>11.421052631578947</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>60.921052631578945</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>60.921052631578945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>(100-1)*((C33-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>47.89473684210526</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>47.89473684210526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71447F59-95C0-F847-BABA-E5E7A161AB1F}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.67211604258709512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.45173997470293781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.43346464052636902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2">
+        <v>17.385602623188777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7471.412142857147</v>
+      </c>
+      <c r="D12" s="2">
+        <v>7471.412142857147</v>
+      </c>
+      <c r="E12" s="2">
+        <v>24.718561660126845</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.5228979286148771E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9067.7753571428566</v>
+      </c>
+      <c r="D13" s="2">
+        <v>302.25917857142855</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
+        <v>16539.187500000004</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20.31488095238096</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.0953336964143734</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.2335498213099796</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.3119458135056574E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.7397314633253629</v>
+      </c>
+      <c r="G17" s="2">
+        <v>38.890030441436558</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.7397314633253629</v>
+      </c>
+      <c r="I17" s="2">
+        <v>38.890030441436558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.3619047619047615</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.0784685819426263</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4.9717765094709181</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.522897928614891E-5</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.1593780820170814</v>
+      </c>
+      <c r="G18" s="3">
+        <v>7.5644314417924416</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.1593780820170814</v>
+      </c>
+      <c r="I18" s="3">
+        <v>7.5644314417924416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D17140-4470-114A-9550-89D74656614B}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-12</v>
+      </c>
+      <c r="D2">
+        <f>(100-1)*((C2-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>33.175000000000004</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>33.175000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D33" si="0">(100-1)*((C3-MIN($C$2:$C$33))/(MAX($C$2:$C$33)-MIN($C$2:$C$33)))+ 1</f>
+        <v>65.350000000000009</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>65.350000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>55.45</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>55.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>65.350000000000009</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>65.350000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>92.575000000000003</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>92.575000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>65.350000000000009</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>65.350000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>80.2</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>70.3</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>80.2</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>62.875</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>62.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>95.05</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>95.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>67.825000000000003</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>67.825000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>33.175000000000004</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>33.175000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>85.149999999999991</v>
+      </c>
+      <c r="F17">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>85.149999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>65.350000000000009</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>65.350000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>90.100000000000009</v>
+      </c>
+      <c r="F19">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>90.100000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>75.25</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>62.875</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>62.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>87.625</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>87.625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>82.674999999999997</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>82.674999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>67.825000000000003</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>67.825000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>38.125</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>38.125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>45.550000000000004</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>45.550000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-6</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>48.024999999999999</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>48.024999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-11</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>35.65</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-25</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-18</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>18.324999999999999</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>18.324999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>60.4</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>80.2</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34">
+        <f>MAX(C2:C33)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <f>MIN(C2:C33)</f>
+        <v>-25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D9E50E-F097-0045-A02C-CE73576C617A}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -3068,7 +8137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E489B74C-3616-4444-B2E7-B898D7CB3C92}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -3444,7 +8513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0C9A85-2FB4-B649-B07C-7055018F75F5}">
   <dimension ref="A1:C33"/>
   <sheetViews>
